--- a/tables/wiki_expanded_wrong.xlsx
+++ b/tables/wiki_expanded_wrong.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sparsity</t>
+          <t>sparsity_necessary</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>explanation rate</t>
+          <t>necessary explanation rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
